--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khanhyentran\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633EF263-7E53-43B4-9B11-805032574808}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCA6519-4644-46D0-829A-853380CA635C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="16080" windowWidth="19800" windowHeight="11760" xr2:uid="{A9A0198A-041C-4F92-9AF6-2F100CA3932E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19455" windowHeight="11760" xr2:uid="{A9A0198A-041C-4F92-9AF6-2F100CA3932E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="47">
   <si>
     <t>Coffee</t>
   </si>
@@ -96,9 +97,6 @@
     <t>Sinh tố mãng cầu</t>
   </si>
   <si>
-    <t>Sinh tố sapo</t>
-  </si>
-  <si>
     <t>Nước ngọt</t>
   </si>
   <si>
@@ -175,6 +173,9 @@
   </si>
   <si>
     <t>Thức uống khác</t>
+  </si>
+  <si>
+    <t>Sinh tố sapoche</t>
   </si>
 </sst>
 </file>
@@ -804,8 +805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1935B8E-9CCD-43AF-9292-7FCA7FCC288B}">
   <dimension ref="B1:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37:Q39"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,7 +819,7 @@
   <sheetData>
     <row r="1" spans="2:9" ht="24.75" x14ac:dyDescent="0.45">
       <c r="D1" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="24.75" x14ac:dyDescent="0.45">
@@ -867,7 +868,7 @@
         <v>4</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="15.75" x14ac:dyDescent="0.3">
@@ -905,7 +906,7 @@
         <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>5</v>
@@ -913,7 +914,7 @@
     </row>
     <row r="14" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>13</v>
@@ -922,7 +923,7 @@
         <v>4</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="15.75" x14ac:dyDescent="0.3">
@@ -965,7 +966,7 @@
         <v>4</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="5:9" ht="15.75" x14ac:dyDescent="0.3">
@@ -976,7 +977,7 @@
         <v>4</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="5:9" ht="15.75" x14ac:dyDescent="0.3">
@@ -987,18 +988,18 @@
         <v>4</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="5:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="F22" s="3" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
         <v>4</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="5:9" ht="15.75" x14ac:dyDescent="0.3">
@@ -1008,7 +1009,7 @@
     <row r="24" spans="5:9" ht="24.75" x14ac:dyDescent="0.45">
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -1016,7 +1017,7 @@
     </row>
     <row r="25" spans="5:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="F25" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H25" t="s">
         <v>4</v>
@@ -1027,7 +1028,7 @@
     </row>
     <row r="26" spans="5:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="F26" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H26" t="s">
         <v>4</v>
@@ -1038,7 +1039,7 @@
     </row>
     <row r="27" spans="5:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="F27" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H27" t="s">
         <v>4</v>
@@ -1049,7 +1050,7 @@
     </row>
     <row r="28" spans="5:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="F28" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H28" t="s">
         <v>4</v>
@@ -1060,18 +1061,18 @@
     </row>
     <row r="29" spans="5:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="F29" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H29" t="s">
         <v>4</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="5:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="F30" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H30" t="s">
         <v>4</v>
@@ -1082,7 +1083,7 @@
     </row>
     <row r="31" spans="5:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="F31" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H31" t="s">
         <v>4</v>
@@ -1093,7 +1094,7 @@
     </row>
     <row r="32" spans="5:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="F32" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H32" t="s">
         <v>4</v>
@@ -1104,7 +1105,7 @@
     </row>
     <row r="33" spans="6:17" ht="15.75" x14ac:dyDescent="0.3">
       <c r="F33" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H33" t="s">
         <v>4</v>
@@ -1115,18 +1116,18 @@
     </row>
     <row r="34" spans="6:17" ht="15.75" x14ac:dyDescent="0.3">
       <c r="F34" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H34" t="s">
         <v>4</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="6:17" ht="15.75" x14ac:dyDescent="0.3">
       <c r="F35" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H35" t="s">
         <v>4</v>
@@ -1137,7 +1138,7 @@
     </row>
     <row r="36" spans="6:17" ht="15.75" x14ac:dyDescent="0.3">
       <c r="F36" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H36" t="s">
         <v>4</v>
@@ -1148,33 +1149,26 @@
     </row>
     <row r="37" spans="6:17" ht="15.75" x14ac:dyDescent="0.3">
       <c r="F37" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H37" t="s">
         <v>4</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N37" s="3"/>
       <c r="Q37" s="3"/>
     </row>
     <row r="38" spans="6:17" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="F38" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H38" t="s">
-        <v>4</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="F38" s="3"/>
+      <c r="I38" s="3"/>
       <c r="N38" s="3"/>
       <c r="Q38" s="3"/>
     </row>
     <row r="39" spans="6:17" ht="24.75" x14ac:dyDescent="0.45">
       <c r="G39" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I39" s="3"/>
       <c r="N39" s="3"/>
@@ -1182,18 +1176,18 @@
     </row>
     <row r="40" spans="6:17" ht="15.75" x14ac:dyDescent="0.3">
       <c r="F40" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H40" t="s">
         <v>4</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="6:17" ht="15.75" x14ac:dyDescent="0.3">
       <c r="F41" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H41" t="s">
         <v>4</v>
@@ -1204,18 +1198,18 @@
     </row>
     <row r="42" spans="6:17" ht="15.75" x14ac:dyDescent="0.3">
       <c r="F42" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H42" t="s">
         <v>4</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="6:17" ht="24.75" x14ac:dyDescent="0.45">
       <c r="G44" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1226,7 +1220,27 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{492CC2FD-29D7-4CE8-A309-0A7CEE46833F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1235,7 +1249,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100741846E85FB7CA48AFE667222A506C35" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="116442f86df0e0c2eecafb4ce19648b4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="55f667a5-ea16-4412-82e7-d5044a761855" xmlns:ns4="85a1011e-674e-4921-bb43-f80b53c4c98f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="88f64ffd97e92820a4a7cbe21a6b6839" ns3:_="" ns4:_="">
     <xsd:import namespace="55f667a5-ea16-4412-82e7-d5044a761855"/>
@@ -1458,13 +1472,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D059726-DE3B-4B47-A470-E5303CA91DF3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="85a1011e-674e-4921-bb43-f80b53c4c98f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="55f667a5-ea16-4412-82e7-d5044a761855"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2984CE3E-AAE2-4111-9FAB-8E04A51BAC0E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -1472,7 +1497,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6D56A3A-49AD-4F81-A26A-310FE2589306}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1489,21 +1514,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D059726-DE3B-4B47-A470-E5303CA91DF3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="85a1011e-674e-4921-bb43-f80b53c4c98f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="55f667a5-ea16-4412-82e7-d5044a761855"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>